--- a/A+라이프 의전 통합시스템 개발 견적서_202210.xlsx
+++ b/A+라이프 의전 통합시스템 개발 견적서_202210.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>A+라이프 의전 통합시스템 구축 견적서(Quotation)</t>
   </si>
@@ -683,7 +683,33 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>▶개발 PL (중급)</t>
+      <t>▶개발 (초급) - 1명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+- 개발 Support
+- 개발 테스터</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>▶개발 PL (고급)</t>
     </r>
     <r>
       <rPr>
@@ -695,6 +721,7 @@
       </rPr>
       <t xml:space="preserve">
 - 화면 개발
+- 시스템 아키텍처 (Service, Dao 설계 및 연동) 구현
 - 기존 데이터베이스 매핑 및 마이그레이션</t>
     </r>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -709,7 +736,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>▶개발 (중급) - 3명</t>
+      <t>▶개발 (중급) - 2명</t>
     </r>
     <r>
       <rPr>
@@ -720,7 +747,9 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- 화면 개발</t>
+- 화면 개발
+- 각 MVC 연결
+- Script 작성</t>
     </r>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -923,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1406,16 +1435,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,9 +1583,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1718,6 +1753,93 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1754,116 +1876,77 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3114,10 +3197,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -3152,29 +3235,29 @@
     </row>
     <row r="2" spans="1:11" ht="8.1" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="130"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="7"/>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="133"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="7"/>
       <c r="K3" s="9"/>
     </row>
@@ -3186,17 +3269,17 @@
       <c r="E4" s="11"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
       <c r="J4" s="7"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
@@ -3210,10 +3293,10 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="134"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
@@ -3227,10 +3310,10 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="134"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
@@ -3244,58 +3327,58 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
       <c r="J8" s="7"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="139" t="s">
+      <c r="F9" s="121" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="141" t="s">
+      <c r="H9" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="142"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="7"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="134"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="140"/>
+      <c r="F10" s="122"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="142"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="7"/>
       <c r="K10" s="9"/>
     </row>
@@ -3303,8 +3386,8 @@
       <c r="A11" s="7"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="18" t="s">
         <v>16</v>
       </c>
@@ -3352,19 +3435,19 @@
     </row>
     <row r="14" spans="1:11" ht="29.45" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="107"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
       <c r="I14" s="29"/>
       <c r="J14" s="7"/>
       <c r="K14" s="24"/>
@@ -3386,7 +3469,7 @@
     </row>
     <row r="16" spans="1:11" ht="20.25" customHeight="1">
       <c r="A16" s="35"/>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="168" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -3414,11 +3497,11 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="93" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="123" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="165" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="38" t="s">
@@ -3428,15 +3511,15 @@
         <v>1</v>
       </c>
       <c r="F17" s="40">
-        <f>G43</f>
+        <f>G44</f>
         <v>16163514.360000001</v>
       </c>
       <c r="G17" s="40">
-        <f t="shared" ref="G17:G25" si="0">F17*(1-I17)</f>
+        <f t="shared" ref="G17:G26" si="0">F17*(1-I17)</f>
         <v>9698108.6160000004</v>
       </c>
       <c r="H17" s="40">
-        <f t="shared" ref="H17:H25" si="1">G17*E17</f>
+        <f t="shared" ref="H17:H26" si="1">G17*E17</f>
         <v>9698108.6160000004</v>
       </c>
       <c r="I17" s="41">
@@ -3446,9 +3529,9 @@
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="93" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="165" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="38" t="s">
@@ -3458,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="40">
-        <f>G44</f>
+        <f>G45</f>
         <v>12687464.16</v>
       </c>
       <c r="G18" s="40">
@@ -3476,11 +3559,11 @@
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="123" t="s">
+      <c r="B19" s="169"/>
+      <c r="C19" s="166" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="38" t="s">
@@ -3490,7 +3573,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" s="40">
-        <f>G44</f>
+        <f>G45</f>
         <v>12687464.16</v>
       </c>
       <c r="G19" s="40">
@@ -3508,9 +3591,9 @@
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="56.25" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="125"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="38" t="s">
         <v>41</v>
       </c>
@@ -3518,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="40">
-        <f>G44</f>
+        <f>G45</f>
         <v>12687464.16</v>
       </c>
       <c r="G20" s="40">
@@ -3536,19 +3619,19 @@
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="71.25" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="123" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="106" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="39">
         <v>4.5</v>
       </c>
       <c r="F21" s="40">
-        <f>G43</f>
+        <f>G44</f>
         <v>16163514.360000001</v>
       </c>
       <c r="G21" s="40">
@@ -3566,26 +3649,26 @@
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="62.25" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="151">
-        <v>4.5</v>
+      <c r="A22" s="7"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="105">
+        <v>5</v>
       </c>
       <c r="F22" s="40">
         <f>G44</f>
-        <v>12687464.16</v>
+        <v>16163514.360000001</v>
       </c>
       <c r="G22" s="40">
         <f t="shared" si="0"/>
-        <v>7612478.4959999993</v>
+        <v>9698108.6160000004</v>
       </c>
       <c r="H22" s="40">
         <f t="shared" si="1"/>
-        <v>34256153.231999993</v>
+        <v>48490543.079999998</v>
       </c>
       <c r="I22" s="41">
         <v>0.4</v>
@@ -3594,584 +3677,622 @@
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" ht="47.25" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="151">
+      <c r="A23" s="7"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="149">
         <v>4</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="150">
         <f>G45</f>
+        <v>12687464.16</v>
+      </c>
+      <c r="G23" s="150">
+        <f>F24*(1-I23)</f>
+        <v>7713354.6000000006</v>
+      </c>
+      <c r="H23" s="150">
+        <f t="shared" si="1"/>
+        <v>30853418.400000002</v>
+      </c>
+      <c r="I23" s="151">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" s="95" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="158">
+        <v>5</v>
+      </c>
+      <c r="F24" s="159">
+        <f>G47</f>
+        <v>10284472.800000001</v>
+      </c>
+      <c r="G24" s="159">
+        <v>4092025</v>
+      </c>
+      <c r="H24" s="159">
+        <f>G24*E24</f>
+        <v>20460125</v>
+      </c>
+      <c r="I24" s="160">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" ht="69" customHeight="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="154">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="155">
+        <f>G45</f>
+        <v>12687464.16</v>
+      </c>
+      <c r="G25" s="155">
+        <f t="shared" si="0"/>
+        <v>9515598.120000001</v>
+      </c>
+      <c r="H25" s="155">
+        <f t="shared" si="1"/>
+        <v>23788995.300000004</v>
+      </c>
+      <c r="I25" s="156">
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" ht="96" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="40">
+        <f>G46</f>
         <v>11413838.520000001</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G26" s="40">
         <f t="shared" si="0"/>
         <v>8560378.8900000006</v>
       </c>
-      <c r="H23" s="40">
-        <f t="shared" si="1"/>
-        <v>34241515.560000002</v>
-      </c>
-      <c r="I23" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" ht="69" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="123" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="F24" s="40">
-        <f>G44</f>
-        <v>12687464.16</v>
-      </c>
-      <c r="G24" s="40">
-        <f t="shared" si="0"/>
-        <v>9515598.120000001</v>
-      </c>
-      <c r="H24" s="40">
-        <f t="shared" si="1"/>
-        <v>23788995.300000004</v>
-      </c>
-      <c r="I24" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" ht="96" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="40">
-        <f>G45</f>
-        <v>11413838.520000001</v>
-      </c>
-      <c r="G25" s="40">
-        <f t="shared" si="0"/>
-        <v>8560378.8900000006</v>
-      </c>
-      <c r="H25" s="40">
+      <c r="H26" s="40">
         <f t="shared" si="1"/>
         <v>21400947.225000001</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I26" s="41">
         <v>0.25</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" ht="38.1" customHeight="1">
-      <c r="A26" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="44">
-        <f>SUM(E17:E25)</f>
-        <v>26.5</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45">
-        <f>SUM(H17:H25)</f>
-        <v>238394194.60499999</v>
-      </c>
-      <c r="I26" s="44">
-        <v>0</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" ht="24" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50">
-        <v>394195</v>
-      </c>
-      <c r="I27" s="51"/>
+    <row r="27" spans="1:11" ht="38.1" customHeight="1">
+      <c r="A27" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="43">
+        <f>SUM(E17:E26)</f>
+        <v>32</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44">
+        <f>SUM(H17:H26)</f>
+        <v>269700612.29300004</v>
+      </c>
+      <c r="I27" s="43">
+        <v>0</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="24" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50">
-        <f>H26-H27</f>
-        <v>237999999.60499999</v>
-      </c>
-      <c r="I28" s="51"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49">
+        <v>394195</v>
+      </c>
+      <c r="I28" s="50"/>
       <c r="J28" s="7"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="23.25" customHeight="1">
+    <row r="29" spans="1:11" ht="24" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50">
-        <f>H28*0.1</f>
-        <v>23799999.960500002</v>
-      </c>
-      <c r="I29" s="52"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49">
+        <f>H27-H28</f>
+        <v>269306417.29300004</v>
+      </c>
+      <c r="I29" s="50"/>
       <c r="J29" s="7"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="24.75" customHeight="1">
+    <row r="30" spans="1:11" ht="23.25" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112">
-        <f>H28+H29</f>
-        <v>261799999.56549999</v>
-      </c>
-      <c r="G30" s="113"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="53"/>
+      <c r="B30" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49">
+        <f>H29*0.1</f>
+        <v>26930641.729300007</v>
+      </c>
+      <c r="I30" s="51"/>
       <c r="J30" s="7"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" ht="22.5" customHeight="1">
+    <row r="31" spans="1:11" ht="24.75" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
+      <c r="B31" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140">
+        <f>H29+H30</f>
+        <v>296237059.02230006</v>
+      </c>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="7"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="25.5" customHeight="1">
+    <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="57"/>
       <c r="J32" s="7"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="7"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1">
       <c r="A34" s="35"/>
-      <c r="B34" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="72"/>
+      <c r="B34" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="7"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1">
       <c r="A35" s="35"/>
-      <c r="B35" s="73" t="s">
-        <v>56</v>
+      <c r="B35" s="68" t="s">
+        <v>55</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="72"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="7"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="25.5" customHeight="1">
       <c r="A36" s="35"/>
-      <c r="B36" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="35"/>
+      <c r="B36" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="7"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="78"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="7"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="24" customHeight="1">
+    <row r="38" spans="1:11" ht="25.5" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="147" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="24" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="145" t="s">
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" ht="24" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="126" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="79"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="78"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="24" customHeight="1">
       <c r="A41" s="35"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="82"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="79"/>
+      <c r="B41" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="81"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="78"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="24" customHeight="1">
       <c r="A42" s="35"/>
-      <c r="B42" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="84">
-        <v>406342</v>
-      </c>
-      <c r="D42" s="85">
-        <f t="shared" ref="D42:D47" si="2">C42*21</f>
-        <v>8533182</v>
-      </c>
-      <c r="E42" s="86">
-        <f t="shared" ref="E42:E47" si="3">D42*1.1</f>
-        <v>9386500.2000000011</v>
-      </c>
-      <c r="F42" s="86">
-        <f t="shared" ref="F42:F47" si="4">(D42+E42)*0.2</f>
-        <v>3583936.4400000009</v>
-      </c>
-      <c r="G42" s="86">
-        <f t="shared" ref="G42:G47" si="5">D42+E42+F42</f>
-        <v>21503618.640000004</v>
-      </c>
-      <c r="H42" s="82"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="79"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="81"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="78"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="24" customHeight="1">
       <c r="A43" s="35"/>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="83">
+        <v>406342</v>
+      </c>
+      <c r="D43" s="84">
+        <f t="shared" ref="D43:D48" si="2">C43*21</f>
+        <v>8533182</v>
+      </c>
+      <c r="E43" s="85">
+        <f t="shared" ref="E43:E48" si="3">D43*1.1</f>
+        <v>9386500.2000000011</v>
+      </c>
+      <c r="F43" s="85">
+        <f t="shared" ref="F43:F48" si="4">(D43+E43)*0.2</f>
+        <v>3583936.4400000009</v>
+      </c>
+      <c r="G43" s="85">
+        <f t="shared" ref="G43:G48" si="5">D43+E43+F43</f>
+        <v>21503618.640000004</v>
+      </c>
+      <c r="H43" s="81"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="24" customHeight="1">
+      <c r="A44" s="35"/>
+      <c r="B44" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="84">
+      <c r="C44" s="83">
         <v>305433</v>
       </c>
-      <c r="D43" s="85">
+      <c r="D44" s="84">
         <f t="shared" si="2"/>
         <v>6414093</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E44" s="85">
         <f t="shared" si="3"/>
         <v>7055502.3000000007</v>
       </c>
-      <c r="F43" s="86">
+      <c r="F44" s="85">
         <f t="shared" si="4"/>
         <v>2693919.0600000005</v>
       </c>
-      <c r="G43" s="86">
+      <c r="G44" s="85">
         <f t="shared" si="5"/>
         <v>16163514.360000001</v>
       </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="24" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="83" t="s">
+      <c r="H44" s="81"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="24" customHeight="1">
+      <c r="A45" s="35"/>
+      <c r="B45" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="84">
+      <c r="C45" s="83">
         <v>239748</v>
       </c>
-      <c r="D44" s="85">
+      <c r="D45" s="84">
         <f t="shared" si="2"/>
         <v>5034708</v>
       </c>
-      <c r="E44" s="86">
+      <c r="E45" s="85">
         <f t="shared" si="3"/>
         <v>5538178.8000000007</v>
       </c>
-      <c r="F44" s="86">
+      <c r="F45" s="85">
         <f t="shared" si="4"/>
         <v>2114577.3600000003</v>
       </c>
-      <c r="G44" s="86">
+      <c r="G45" s="85">
         <f t="shared" si="5"/>
         <v>12687464.16</v>
       </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" ht="24" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="83" t="s">
+      <c r="H45" s="81"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" ht="24" customHeight="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="84">
+      <c r="C46" s="83">
         <v>215681</v>
       </c>
-      <c r="D45" s="85">
+      <c r="D46" s="84">
         <f t="shared" si="2"/>
         <v>4529301</v>
       </c>
-      <c r="E45" s="86">
+      <c r="E46" s="85">
         <f t="shared" si="3"/>
         <v>4982231.1000000006</v>
       </c>
-      <c r="F45" s="86">
+      <c r="F46" s="85">
         <f t="shared" si="4"/>
         <v>1902306.4200000004</v>
       </c>
-      <c r="G45" s="86">
+      <c r="G46" s="85">
         <f t="shared" si="5"/>
         <v>11413838.520000001</v>
       </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="24" customHeight="1">
-      <c r="A46" s="35"/>
-      <c r="B46" s="83" t="s">
+      <c r="H46" s="81"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="24" customHeight="1">
+      <c r="A47" s="35"/>
+      <c r="B47" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C47" s="83">
         <v>194340</v>
       </c>
-      <c r="D46" s="85">
+      <c r="D47" s="84">
         <f t="shared" si="2"/>
         <v>4081140</v>
       </c>
-      <c r="E46" s="86">
+      <c r="E47" s="85">
         <f t="shared" si="3"/>
         <v>4489254</v>
       </c>
-      <c r="F46" s="86">
+      <c r="F47" s="85">
         <f t="shared" si="4"/>
         <v>1714078.8</v>
       </c>
-      <c r="G46" s="86">
+      <c r="G47" s="85">
         <f t="shared" si="5"/>
         <v>10284472.800000001</v>
       </c>
-      <c r="H46" s="82"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" ht="24" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="83" t="s">
+      <c r="H47" s="81"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" ht="24" customHeight="1">
+      <c r="A48" s="35"/>
+      <c r="B48" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C48" s="83">
         <v>158597</v>
       </c>
-      <c r="D47" s="85">
+      <c r="D48" s="84">
         <f t="shared" si="2"/>
         <v>3330537</v>
       </c>
-      <c r="E47" s="86">
+      <c r="E48" s="85">
         <f t="shared" si="3"/>
         <v>3663590.7</v>
       </c>
-      <c r="F47" s="86">
+      <c r="F48" s="85">
         <f t="shared" si="4"/>
         <v>1398825.54</v>
       </c>
-      <c r="G47" s="86">
+      <c r="G48" s="85">
         <f t="shared" si="5"/>
         <v>8392953.2400000002</v>
       </c>
-      <c r="H47" s="82"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" ht="24" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="79"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="78"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="7"/>
+    <row r="49" spans="1:11" ht="24" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="78"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A50" s="91"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="95"/>
+    <row r="50" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A50" s="87"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" ht="14.45" customHeight="1">
+      <c r="A51" s="90"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="H4:I4"/>
@@ -4184,23 +4305,12 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B39:H39"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="F30:I30">
+  <conditionalFormatting sqref="F31:I31">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4222,400 +4332,400 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="8.875" style="96" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="96" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="96" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="96" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="96" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="96" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="96" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="96" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="96"/>
+    <col min="1" max="4" width="8.875" style="95" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="95" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="95" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="95" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="95" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="95" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="95" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="95" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="95"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99">
         <v>240000000</v>
       </c>
       <c r="F5" s="40">
         <v>26000000</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="100">
         <f>1-(F5/E5)</f>
         <v>0.89166666666666661</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="99"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="40">
         <v>50000000</v>
       </c>
       <c r="F6" s="40">
         <v>15000000</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="100">
         <f>1-(F6/E6)</f>
         <v>0.7</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="99"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="40">
         <v>100000000</v>
       </c>
       <c r="F7" s="40">
         <v>29000000</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="100">
         <f>1-(F7/E7)</f>
         <v>0.71</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="103" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="103">
         <v>1.5</v>
       </c>
-      <c r="H16" s="105">
+      <c r="H16" s="104">
         <v>8100000</v>
       </c>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="104">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="103">
         <v>1.25</v>
       </c>
-      <c r="H17" s="105">
+      <c r="H17" s="104">
         <v>9750000</v>
       </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="104">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="103">
         <v>0.5</v>
       </c>
-      <c r="H18" s="105">
+      <c r="H18" s="104">
         <v>2700000</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
     </row>
     <row r="19" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="104">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="103">
         <v>1</v>
       </c>
-      <c r="H19" s="105">
+      <c r="H19" s="104">
         <v>5400000</v>
       </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
     </row>
     <row r="20" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="104">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="103">
         <v>0.25</v>
       </c>
-      <c r="H20" s="105">
+      <c r="H20" s="104">
         <v>1350000</v>
       </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
     </row>
     <row r="21" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="104">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="103">
         <v>2.5</v>
       </c>
-      <c r="H21" s="105">
+      <c r="H21" s="104">
         <v>19500000</v>
       </c>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="104">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="103">
         <v>0.25</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="104">
         <v>1350000</v>
       </c>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="105">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="104">
         <v>-4800000</v>
       </c>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
     </row>
     <row r="24" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="105">
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="104">
         <f>SUM(H16:H23)</f>
         <v>43350000</v>
       </c>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
     </row>
     <row r="25" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
     </row>
     <row r="26" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
     </row>
     <row r="27" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="104">
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="103">
         <v>47000000</v>
       </c>
-      <c r="I27" s="104">
+      <c r="I27" s="103">
         <v>-3900000</v>
       </c>
-      <c r="J27" s="105">
+      <c r="J27" s="104">
         <f>SUM(H27:I27)</f>
         <v>43100000</v>
       </c>
